--- a/ADC/pspice/schematic/ADC.xlsx
+++ b/ADC/pspice/schematic/ADC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\local\college\classes\2021bF\ECEN4013\ECEN4013\ADC\pspice\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5719F4F-1D4D-4F36-A66E-D00091880410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F481DF1B-2826-4320-87BD-65D25855F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t xml:space="preserve">  Revised: Sunday, September 05, 2021</t>
   </si>
@@ -188,12 +199,57 @@
   </si>
   <si>
     <t>CD4027</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>schmit</t>
+  </si>
+  <si>
+    <t>5 schmitt</t>
+  </si>
+  <si>
+    <t>4 and</t>
+  </si>
+  <si>
+    <t>3 or</t>
+  </si>
+  <si>
+    <t>1 mhz</t>
+  </si>
+  <si>
+    <t>3 1k</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>1 100k</t>
+  </si>
+  <si>
+    <t>1 32n</t>
+  </si>
+  <si>
+    <t>2 10u</t>
+  </si>
+  <si>
+    <t>1 15p</t>
+  </si>
+  <si>
+    <t>caps</t>
+  </si>
+  <si>
+    <t>res</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,8 +727,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,11 +1084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,6 +1321,9 @@
       <c r="F27" t="s">
         <v>49</v>
       </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1284,6 +1344,9 @@
       <c r="F28" t="s">
         <v>50</v>
       </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1304,6 +1367,9 @@
       <c r="F29" t="s">
         <v>51</v>
       </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1367,6 +1433,9 @@
       <c r="F32" t="s">
         <v>54</v>
       </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1403,6 +1472,63 @@
       </c>
       <c r="D34" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f>19+4</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
